--- a/mod.xlsx
+++ b/mod.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\naviproject\naviBuilding\Page_Djan\0.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\naviproject\naviBuilding\Page_Djan\0.0.0-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="0" windowWidth="18150" windowHeight="8820"/>
+    <workbookView xWindow="3150" yWindow="0" windowWidth="18150" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>usuario cel</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>ciudades</t>
+  </si>
+  <si>
+    <t>Palabras clave</t>
+  </si>
+  <si>
+    <t>Album fotos</t>
+  </si>
+  <si>
+    <t>fotos</t>
+  </si>
+  <si>
+    <t>file (jpg,png,etc)</t>
   </si>
 </sst>
 </file>
@@ -120,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,16 +177,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F20"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,33 +538,34 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -504,64 +575,87 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="18" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
+    <row r="22" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
